--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Amelx-Lamp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Amelx-Lamp2.xlsx
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Amelx</t>
+  </si>
+  <si>
+    <t>Lamp2</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Amelx</t>
-  </si>
-  <si>
-    <t>Lamp2</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -528,25 +528,25 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.052706</v>
+        <v>0.6742976666666666</v>
       </c>
       <c r="H2">
-        <v>0.158118</v>
+        <v>2.022893</v>
       </c>
       <c r="I2">
-        <v>0.03694129152706233</v>
+        <v>0.3960292783506769</v>
       </c>
       <c r="J2">
-        <v>0.03694129152706232</v>
+        <v>0.3960292783506769</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>116.9612273333333</v>
+        <v>75.93400333333334</v>
       </c>
       <c r="N2">
-        <v>350.883682</v>
+        <v>227.80201</v>
       </c>
       <c r="O2">
-        <v>0.1879432022234502</v>
+        <v>0.140568299724637</v>
       </c>
       <c r="P2">
-        <v>0.1879432022234502</v>
+        <v>0.140568299724637</v>
       </c>
       <c r="Q2">
-        <v>6.164558447830667</v>
+        <v>51.20212126832555</v>
       </c>
       <c r="R2">
-        <v>55.48102603047601</v>
+        <v>460.81909141493</v>
       </c>
       <c r="S2">
-        <v>0.0069428646238661</v>
+        <v>0.05566916229892963</v>
       </c>
       <c r="T2">
-        <v>0.006942864623866099</v>
+        <v>0.05566916229892963</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,25 +590,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.052706</v>
+        <v>0.6742976666666666</v>
       </c>
       <c r="H3">
-        <v>0.158118</v>
+        <v>2.022893</v>
       </c>
       <c r="I3">
-        <v>0.03694129152706233</v>
+        <v>0.3960292783506769</v>
       </c>
       <c r="J3">
-        <v>0.03694129152706232</v>
+        <v>0.3960292783506769</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>607.337081</v>
       </c>
       <c r="O3">
-        <v>0.3253068799938748</v>
+        <v>0.3747655292237945</v>
       </c>
       <c r="P3">
-        <v>0.3253068799938748</v>
+        <v>0.3747655292237945</v>
       </c>
       <c r="Q3">
-        <v>10.67010273039533</v>
+        <v>136.5086588661481</v>
       </c>
       <c r="R3">
-        <v>96.03092457355801</v>
+        <v>1228.577929795333</v>
       </c>
       <c r="S3">
-        <v>0.01201725628961281</v>
+        <v>0.1484181220892088</v>
       </c>
       <c r="T3">
-        <v>0.01201725628961281</v>
+        <v>0.1484181220892088</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,25 +652,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.052706</v>
+        <v>0.6742976666666666</v>
       </c>
       <c r="H4">
-        <v>0.158118</v>
+        <v>2.022893</v>
       </c>
       <c r="I4">
-        <v>0.03694129152706233</v>
+        <v>0.3960292783506769</v>
       </c>
       <c r="J4">
-        <v>0.03694129152706232</v>
+        <v>0.3960292783506769</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>87.12153600000001</v>
+        <v>101.2433646666667</v>
       </c>
       <c r="N4">
-        <v>261.364608</v>
+        <v>303.730094</v>
       </c>
       <c r="O4">
-        <v>0.1399942599080364</v>
+        <v>0.1874207470284575</v>
       </c>
       <c r="P4">
-        <v>0.1399942599080364</v>
+        <v>0.1874207470284576</v>
       </c>
       <c r="Q4">
-        <v>4.591827676416001</v>
+        <v>68.26816456021577</v>
       </c>
       <c r="R4">
-        <v>41.32644908774401</v>
+        <v>614.413481041942</v>
       </c>
       <c r="S4">
-        <v>0.005171568767378104</v>
+        <v>0.07422410319362481</v>
       </c>
       <c r="T4">
-        <v>0.005171568767378104</v>
+        <v>0.07422410319362482</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,25 +714,25 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.052706</v>
+        <v>0.6742976666666666</v>
       </c>
       <c r="H5">
-        <v>0.158118</v>
+        <v>2.022893</v>
       </c>
       <c r="I5">
-        <v>0.03694129152706233</v>
+        <v>0.3960292783506769</v>
       </c>
       <c r="J5">
-        <v>0.03694129152706232</v>
+        <v>0.3960292783506769</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>215.7937443333334</v>
+        <v>160.56988</v>
       </c>
       <c r="N5">
-        <v>647.3812330000001</v>
+        <v>481.70964</v>
       </c>
       <c r="O5">
-        <v>0.3467556578746387</v>
+        <v>0.297245424023111</v>
       </c>
       <c r="P5">
-        <v>0.3467556578746386</v>
+        <v>0.297245424023111</v>
       </c>
       <c r="Q5">
-        <v>11.37362508883267</v>
+        <v>108.2718954209467</v>
       </c>
       <c r="R5">
-        <v>102.362625799494</v>
+        <v>974.4470587885199</v>
       </c>
       <c r="S5">
-        <v>0.01280960184620531</v>
+        <v>0.1177178907689136</v>
       </c>
       <c r="T5">
-        <v>0.01280960184620531</v>
+        <v>0.1177178907689136</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,25 +776,25 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6742976666666666</v>
+        <v>0.8625470000000001</v>
       </c>
       <c r="H6">
-        <v>2.022893</v>
+        <v>2.587641</v>
       </c>
       <c r="I6">
-        <v>0.4726108352056924</v>
+        <v>0.5065920925430184</v>
       </c>
       <c r="J6">
-        <v>0.4726108352056924</v>
+        <v>0.5065920925430184</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>116.9612273333333</v>
+        <v>75.93400333333334</v>
       </c>
       <c r="N6">
-        <v>350.883682</v>
+        <v>227.80201</v>
       </c>
       <c r="O6">
-        <v>0.1879432022234502</v>
+        <v>0.140568299724637</v>
       </c>
       <c r="P6">
-        <v>0.1879432022234502</v>
+        <v>0.140568299724637</v>
       </c>
       <c r="Q6">
-        <v>78.86668268133621</v>
+        <v>65.49664677315667</v>
       </c>
       <c r="R6">
-        <v>709.8001441320259</v>
+        <v>589.46982095841</v>
       </c>
       <c r="S6">
-        <v>0.08882399377405711</v>
+        <v>0.07121078910271804</v>
       </c>
       <c r="T6">
-        <v>0.08882399377405711</v>
+        <v>0.07121078910271804</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,25 +838,25 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6742976666666666</v>
+        <v>0.8625470000000001</v>
       </c>
       <c r="H7">
-        <v>2.022893</v>
+        <v>2.587641</v>
       </c>
       <c r="I7">
-        <v>0.4726108352056924</v>
+        <v>0.5065920925430184</v>
       </c>
       <c r="J7">
-        <v>0.4726108352056924</v>
+        <v>0.5065920925430184</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>607.337081</v>
       </c>
       <c r="O7">
-        <v>0.3253068799938748</v>
+        <v>0.3747655292237945</v>
       </c>
       <c r="P7">
-        <v>0.3253068799938748</v>
+        <v>0.3747655292237945</v>
       </c>
       <c r="Q7">
-        <v>136.5086588661481</v>
+        <v>174.6189257351024</v>
       </c>
       <c r="R7">
-        <v>1228.577929795333</v>
+        <v>1571.570331615921</v>
       </c>
       <c r="S7">
-        <v>0.1537435562520631</v>
+        <v>0.1898532536624737</v>
       </c>
       <c r="T7">
-        <v>0.1537435562520631</v>
+        <v>0.1898532536624737</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,25 +900,25 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.6742976666666666</v>
+        <v>0.8625470000000001</v>
       </c>
       <c r="H8">
-        <v>2.022893</v>
+        <v>2.587641</v>
       </c>
       <c r="I8">
-        <v>0.4726108352056924</v>
+        <v>0.5065920925430184</v>
       </c>
       <c r="J8">
-        <v>0.4726108352056924</v>
+        <v>0.5065920925430184</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>87.12153600000001</v>
+        <v>101.2433646666667</v>
       </c>
       <c r="N8">
-        <v>261.364608</v>
+        <v>303.730094</v>
       </c>
       <c r="O8">
-        <v>0.1399942599080364</v>
+        <v>0.1874207470284575</v>
       </c>
       <c r="P8">
-        <v>0.1399942599080364</v>
+        <v>0.1874207470284576</v>
       </c>
       <c r="Q8">
-        <v>58.745848441216</v>
+        <v>87.32716046313934</v>
       </c>
       <c r="R8">
-        <v>528.712635970944</v>
+        <v>785.944444168254</v>
       </c>
       <c r="S8">
-        <v>0.06616280409913983</v>
+        <v>0.094945868423122</v>
       </c>
       <c r="T8">
-        <v>0.06616280409913984</v>
+        <v>0.09494586842312201</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,25 +962,25 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.6742976666666666</v>
+        <v>0.8625470000000001</v>
       </c>
       <c r="H9">
-        <v>2.022893</v>
+        <v>2.587641</v>
       </c>
       <c r="I9">
-        <v>0.4726108352056924</v>
+        <v>0.5065920925430184</v>
       </c>
       <c r="J9">
-        <v>0.4726108352056924</v>
+        <v>0.5065920925430184</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>215.7937443333334</v>
+        <v>160.56988</v>
       </c>
       <c r="N9">
-        <v>647.3812330000001</v>
+        <v>481.70964</v>
       </c>
       <c r="O9">
-        <v>0.3467556578746387</v>
+        <v>0.297245424023111</v>
       </c>
       <c r="P9">
-        <v>0.3467556578746386</v>
+        <v>0.297245424023111</v>
       </c>
       <c r="Q9">
-        <v>145.5092182852299</v>
+        <v>138.49906828436</v>
       </c>
       <c r="R9">
-        <v>1309.582964567069</v>
+        <v>1246.49161455924</v>
       </c>
       <c r="S9">
-        <v>0.1638804810804323</v>
+        <v>0.1505821813547046</v>
       </c>
       <c r="T9">
-        <v>0.1638804810804323</v>
+        <v>0.1505821813547046</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,25 +1024,25 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.6997466666666666</v>
+        <v>0.1658013333333333</v>
       </c>
       <c r="H10">
-        <v>2.09924</v>
+        <v>0.497404</v>
       </c>
       <c r="I10">
-        <v>0.4904478732672454</v>
+        <v>0.09737862910630474</v>
       </c>
       <c r="J10">
-        <v>0.4904478732672453</v>
+        <v>0.09737862910630474</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>116.9612273333333</v>
+        <v>75.93400333333334</v>
       </c>
       <c r="N10">
-        <v>350.883682</v>
+        <v>227.80201</v>
       </c>
       <c r="O10">
-        <v>0.1879432022234502</v>
+        <v>0.140568299724637</v>
       </c>
       <c r="P10">
-        <v>0.1879432022234502</v>
+        <v>0.140568299724637</v>
       </c>
       <c r="Q10">
-        <v>81.84322895574222</v>
+        <v>12.58995899800444</v>
       </c>
       <c r="R10">
-        <v>736.58906060168</v>
+        <v>113.30963098204</v>
       </c>
       <c r="S10">
-        <v>0.09217634382552695</v>
+        <v>0.0136883483229893</v>
       </c>
       <c r="T10">
-        <v>0.09217634382552693</v>
+        <v>0.0136883483229893</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,25 +1086,25 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.6997466666666666</v>
+        <v>0.1658013333333333</v>
       </c>
       <c r="H11">
-        <v>2.09924</v>
+        <v>0.497404</v>
       </c>
       <c r="I11">
-        <v>0.4904478732672454</v>
+        <v>0.09737862910630474</v>
       </c>
       <c r="J11">
-        <v>0.4904478732672453</v>
+        <v>0.09737862910630474</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>607.337081</v>
       </c>
       <c r="O11">
-        <v>0.3253068799938748</v>
+        <v>0.3747655292237945</v>
       </c>
       <c r="P11">
-        <v>0.3253068799938748</v>
+        <v>0.3747655292237945</v>
       </c>
       <c r="Q11">
-        <v>141.6606993242711</v>
+        <v>33.56576593752489</v>
       </c>
       <c r="R11">
-        <v>1274.94629391844</v>
+        <v>302.091893437724</v>
       </c>
       <c r="S11">
-        <v>0.1595460674521989</v>
+        <v>0.03649415347211189</v>
       </c>
       <c r="T11">
-        <v>0.1595460674521989</v>
+        <v>0.03649415347211189</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,25 +1148,25 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.6997466666666666</v>
+        <v>0.1658013333333333</v>
       </c>
       <c r="H12">
-        <v>2.09924</v>
+        <v>0.497404</v>
       </c>
       <c r="I12">
-        <v>0.4904478732672454</v>
+        <v>0.09737862910630474</v>
       </c>
       <c r="J12">
-        <v>0.4904478732672453</v>
+        <v>0.09737862910630474</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>87.12153600000001</v>
+        <v>101.2433646666667</v>
       </c>
       <c r="N12">
-        <v>261.364608</v>
+        <v>303.730094</v>
       </c>
       <c r="O12">
-        <v>0.1399942599080364</v>
+        <v>0.1874207470284575</v>
       </c>
       <c r="P12">
-        <v>0.1399942599080364</v>
+        <v>0.1874207470284576</v>
       </c>
       <c r="Q12">
-        <v>60.96300441088</v>
+        <v>16.78628485288622</v>
       </c>
       <c r="R12">
-        <v>548.66703969792</v>
+        <v>151.076563675976</v>
       </c>
       <c r="S12">
-        <v>0.06865988704151842</v>
+        <v>0.01825077541171073</v>
       </c>
       <c r="T12">
-        <v>0.06865988704151843</v>
+        <v>0.01825077541171074</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,25 +1210,25 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.6997466666666666</v>
+        <v>0.1658013333333333</v>
       </c>
       <c r="H13">
-        <v>2.09924</v>
+        <v>0.497404</v>
       </c>
       <c r="I13">
-        <v>0.4904478732672454</v>
+        <v>0.09737862910630474</v>
       </c>
       <c r="J13">
-        <v>0.4904478732672453</v>
+        <v>0.09737862910630474</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>215.7937443333334</v>
+        <v>160.56988</v>
       </c>
       <c r="N13">
-        <v>647.3812330000001</v>
+        <v>481.70964</v>
       </c>
       <c r="O13">
-        <v>0.3467556578746387</v>
+        <v>0.297245424023111</v>
       </c>
       <c r="P13">
-        <v>0.3467556578746386</v>
+        <v>0.297245424023111</v>
       </c>
       <c r="Q13">
-        <v>151.0009532847689</v>
+        <v>26.62270019717333</v>
       </c>
       <c r="R13">
-        <v>1359.00857956292</v>
+        <v>239.60430177456</v>
       </c>
       <c r="S13">
-        <v>0.1700655749480011</v>
+        <v>0.02894535189949281</v>
       </c>
       <c r="T13">
-        <v>0.170065574948001</v>
+        <v>0.02894535189949281</v>
       </c>
     </row>
   </sheetData>
